--- a/data/data_temp_semi2.xlsx
+++ b/data/data_temp_semi2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dev\Projets\phys_exp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11E6077D-3863-46CA-886E-B9071D45F976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A737C96D-85E9-472C-8FA9-9C8A92C0A923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{52F4DC0C-F3F8-4FFC-B102-90FAA0F2C8C1}"/>
   </bookViews>
@@ -393,9 +393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C8BFB2-16AA-47D5-83D0-F36DE1D7AE4C}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -687,6 +689,14 @@
         <v>768</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-7</v>
+      </c>
+      <c r="B37">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
